--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T10:03:08+00:00</t>
+    <t>2022-03-17T10:25:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T10:53:01+00:00</t>
+    <t>2022-03-17T16:20:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T16:20:22+00:00</t>
+    <t>2022-03-17T16:39:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T16:39:50+00:00</t>
+    <t>2022-03-17T17:34:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T17:34:21+00:00</t>
+    <t>2022-03-21T12:01:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:01:30+00:00</t>
+    <t>2022-03-21T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:26+00:00</t>
+    <t>2022-03-21T13:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T13:05:36+00:00</t>
+    <t>2022-03-21T13:51:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T13:51:32+00:00</t>
+    <t>2022-03-21T14:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T14:13:18+00:00</t>
+    <t>2022-03-21T14:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T14:58:08+00:00</t>
+    <t>2022-03-25T12:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T12:46:50+00:00</t>
+    <t>2022-03-25T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T12:55:42+00:00</t>
+    <t>2022-03-25T14:39:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T14:39:23+00:00</t>
+    <t>2022-04-04T13:17:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T13:17:06+00:00</t>
+    <t>2022-04-08T09:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T09:50:16+00:00</t>
+    <t>2022-04-08T10:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T10:19:08+00:00</t>
+    <t>2022-04-08T10:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T10:25:57+00:00</t>
+    <t>2022-04-08T10:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
